--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RiddleHailing\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011941E-6225-4B1B-ACA2-D53BE71C5887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596D79A-8C55-48B6-B0F3-313219E3F670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="2" r:id="rId1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D6:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,35 +598,71 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>14</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>14</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>14</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -762,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RiddleHailing\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596D79A-8C55-48B6-B0F3-313219E3F670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97887DE3-32BA-488A-9EDD-CABB77149AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="2" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Rating Pengemudi (RD)</t>
   </si>
   <si>
-    <t>Koordinat tujuan penumpang (X0R)</t>
-  </si>
-  <si>
     <t>Koordinat tujuan penumpang (Y0R)</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>Pengemudi/Driver (i)</t>
+  </si>
+  <si>
+    <t>Koordinat tujuan penumpang (XDR)</t>
   </si>
 </sst>
 </file>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +465,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -553,116 +553,56 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>14</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>14</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>14</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>14</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>14</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -798,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -820,13 +760,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -889,11 +829,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RiddleHailing\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97887DE3-32BA-488A-9EDD-CABB77149AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD0997E-CE8F-4FCC-9014-BA1C39076097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="2" r:id="rId1"/>
     <sheet name="Rider" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -44,9 +52,6 @@
     <t>Rating Pengemudi (RD)</t>
   </si>
   <si>
-    <t>Koordinat tujuan penumpang (Y0R)</t>
-  </si>
-  <si>
     <t>Toleransi Jarak pickup penumpang (JR)</t>
   </si>
   <si>
@@ -57,6 +62,9 @@
   </si>
   <si>
     <t>Koordinat tujuan penumpang (XDR)</t>
+  </si>
+  <si>
+    <t>Koordinat tujuan penumpang (YDR)</t>
   </si>
 </sst>
 </file>
@@ -447,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +473,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -488,19 +496,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -511,19 +519,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -534,19 +542,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -607,126 +615,805 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -736,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +1438,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -760,13 +1447,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -774,19 +1461,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -794,131 +1481,404 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RiddleHailing\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD0997E-CE8F-4FCC-9014-BA1C39076097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E15F902-97C0-4A05-A04E-F93CC425A98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>100</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -519,10 +519,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -561,23 +561,47 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>13</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1426,7 +1450,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -1481,10 +1505,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
         <v>17</v>
@@ -1497,12 +1521,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
